--- a/기획서/221016_스테이지 기획서 초안.xlsx
+++ b/기획서/221016_스테이지 기획서 초안.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435" activeTab="3"/>
+    <workbookView xWindow="4635" yWindow="4635" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
-    <sheet name="stage" sheetId="5" r:id="rId1"/>
-    <sheet name="event" sheetId="6" r:id="rId2"/>
-    <sheet name="building" sheetId="1" r:id="rId3"/>
-    <sheet name="char" sheetId="2" r:id="rId4"/>
+    <sheet name="설명" sheetId="7" r:id="rId1"/>
+    <sheet name="stage" sheetId="5" r:id="rId2"/>
+    <sheet name="event" sheetId="6" r:id="rId3"/>
+    <sheet name="building" sheetId="1" r:id="rId4"/>
+    <sheet name="char" sheetId="2" r:id="rId5"/>
+    <sheet name="chapter" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t xml:space="preserve">VPS 연출 에셋 파일 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,10 +118,186 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ㄴ캐릭터가 한명이니 like/hate만 판단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose1_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_location_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_location_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택지2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventType2(대화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 타입 1(대화) 한정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴ stage1까지 1차 프로토타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventType1(특별 VPS)이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지 기본 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose2_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingID_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시작 지점 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생위치X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발생위치Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">에셋 파일 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 sheet 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">기획 의도 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼럼 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">규칙 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheet 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stageID_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>chapterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>stageID_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,163 +306,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>nextChapterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nextStageID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ캐릭터가 한명이니 like/hate만 판단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>animation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose1_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_location_X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_location_Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventType2(대화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 타입 1(대화) 한정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄴ stage1까지 1차 프로토타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ㄴ 2차 프로토타입 때 쓸 것 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EventType1(특별 VPS)이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스테이지 기본 정보 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose2_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dateType1(취향 맞추기) 데이트 진행 파트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dateType2(방명록 진행 파트) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buildingID_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 빌딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번째</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세번째</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시작 지점 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음 스테이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생위치X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발생위치Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">에셋 파일 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Event_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이벤트 sheet 참고</t>
+    <t>NextchapterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">챕터 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스테이지란? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -352,26 +394,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -423,67 +445,45 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,50 +491,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,10 +811,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I13"/>
+  <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -861,112 +889,82 @@
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="21">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
       <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -979,54 +977,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1039,12 +1037,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1064,96 +1062,96 @@
     <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="8" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="J2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="19"/>
+        <v>38</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
@@ -1184,12 +1182,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1199,42 +1197,94 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-      <c r="F2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>39</v>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
